--- a/app_trader_dashboard.xlsx
+++ b/app_trader_dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubba\Desktop\app-trader-lord-farquaad -- katie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubba\Documents\NSS\projects\app-trader-lord-farquaad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6BE25-FC38-4E29-B85F-C939CB772B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32DC1CB-314C-4B60-8430-A3020A35AE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435B2118-9BC2-4A22-8DDA-D925881DD64E}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -292,15 +292,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7474,10 +7474,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7778,7 +7774,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7869,10 +7865,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -8191,7 +8187,7 @@
       <c r="E2">
         <v>266695.23809523799</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>416380.95238095202</v>
       </c>
     </row>
@@ -8211,7 +8207,7 @@
       <c r="E3">
         <v>258414</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>406596.5</v>
       </c>
     </row>
@@ -8231,7 +8227,7 @@
       <c r="E4">
         <v>258172.30769230699</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>404772.30769230699</v>
       </c>
     </row>
@@ -8251,7 +8247,7 @@
       <c r="E5">
         <v>234568.18181818101</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>376409.09090909001</v>
       </c>
     </row>
@@ -8313,7 +8309,7 @@
       <c r="E2">
         <v>269129.41176470497</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>426782.35294117598</v>
       </c>
     </row>
@@ -8333,7 +8329,7 @@
       <c r="E3">
         <v>254935.59322033799</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>403971.18644067697</v>
       </c>
     </row>
@@ -8353,7 +8349,7 @@
       <c r="E4">
         <v>257616.888888888</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>403684.44444444397</v>
       </c>
     </row>
@@ -8373,7 +8369,7 @@
       <c r="E5">
         <v>242754.545454545</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>384054.545454545</v>
       </c>
     </row>
@@ -8398,10 +8394,10 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>406596.5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>403684.44444444397</v>
       </c>
     </row>
@@ -8412,10 +8408,10 @@
       <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>416380.95238095202</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>426782.35294117598</v>
       </c>
     </row>
@@ -8426,10 +8422,10 @@
       <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>404772.30769230699</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>403971.18644067697</v>
       </c>
     </row>
@@ -8440,10 +8436,10 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>376409.09090909001</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>384054.545454545</v>
       </c>
     </row>
